--- a/2016elections/20161107-early_voting/builds/development/data/maindata.xlsx
+++ b/2016elections/20161107-early_voting/builds/development/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1520" windowWidth="26900" windowHeight="17360" activeTab="4"/>
+    <workbookView xWindow="1120" yWindow="1520" windowWidth="26900" windowHeight="17360" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="where" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="when" sheetId="3" r:id="rId3"/>
     <sheet name="lean" sheetId="4" r:id="rId4"/>
     <sheet name="source" sheetId="6" r:id="rId5"/>
+    <sheet name="layout" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="203">
   <si>
     <t>countyname</t>
   </si>
@@ -581,6 +582,57 @@
   </si>
   <si>
     <t>Minnesota Secretary of State, Star Tribune analysis</t>
+  </si>
+  <si>
+    <t>Minnesota county name</t>
+  </si>
+  <si>
+    <t>Number of absentee ballots cast as of October 2016</t>
+  </si>
+  <si>
+    <t>Number of registered voters as of October 2016</t>
+  </si>
+  <si>
+    <t>Percent of registed voters casting absentee ballots</t>
+  </si>
+  <si>
+    <t>Number of elections voter has been registered</t>
+  </si>
+  <si>
+    <t>Number of voters</t>
+  </si>
+  <si>
+    <t>Average age of voters</t>
+  </si>
+  <si>
+    <t>Percent of voters casting absentee ballots</t>
+  </si>
+  <si>
+    <t>Month absentee ballot was cast</t>
+  </si>
+  <si>
+    <t>Day absentee ballot was cast</t>
+  </si>
+  <si>
+    <t>Date absentee ballots was cast</t>
+  </si>
+  <si>
+    <t>Number of absentee ballots accepted</t>
+  </si>
+  <si>
+    <t>Week number since start of absentee voting</t>
+  </si>
+  <si>
+    <t>Date range of absentee voting</t>
+  </si>
+  <si>
+    <t>Lean of absentee votes in 2012</t>
+  </si>
+  <si>
+    <t>Percent of all absentee votes</t>
+  </si>
+  <si>
+    <t>Number of absentee voter</t>
   </si>
 </sst>
 </file>
@@ -659,10 +711,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -680,10 +756,34 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="29">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -852,11 +952,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1954136648"/>
-        <c:axId val="1940920952"/>
+        <c:axId val="1806835528"/>
+        <c:axId val="1803892584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1954136648"/>
+        <c:axId val="1806835528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -865,7 +965,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1940920952"/>
+        <c:crossAx val="1803892584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -873,7 +973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1940920952"/>
+        <c:axId val="1803892584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -884,7 +984,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1954136648"/>
+        <c:crossAx val="1806835528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1011,11 +1111,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1950779640"/>
-        <c:axId val="1950891544"/>
+        <c:axId val="1785030184"/>
+        <c:axId val="1784851400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1950779640"/>
+        <c:axId val="1785030184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1024,7 +1124,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1950891544"/>
+        <c:crossAx val="1784851400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1032,7 +1132,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1950891544"/>
+        <c:axId val="1784851400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1043,7 +1143,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1950779640"/>
+        <c:crossAx val="1785030184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1234,11 +1334,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1956625656"/>
-        <c:axId val="1950858616"/>
+        <c:axId val="1806261304"/>
+        <c:axId val="1806264280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1956625656"/>
+        <c:axId val="1806261304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,7 +1347,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1950858616"/>
+        <c:crossAx val="1806264280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1255,7 +1355,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1950858616"/>
+        <c:axId val="1806264280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,7 +1366,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1956625656"/>
+        <c:crossAx val="1806261304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1395,11 +1495,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1956239320"/>
-        <c:axId val="1917059416"/>
+        <c:axId val="1804987304"/>
+        <c:axId val="1805315496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1956239320"/>
+        <c:axId val="1804987304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1408,7 +1508,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1917059416"/>
+        <c:crossAx val="1805315496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1416,7 +1516,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1917059416"/>
+        <c:axId val="1805315496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,7 +1527,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1956239320"/>
+        <c:crossAx val="1804987304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1869,7 +1969,7 @@
   <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3343,6 +3443,7 @@
     <sortCondition descending="1" ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3357,7 +3458,7 @@
   <dimension ref="A1:L137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="D3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5250,6 +5351,7 @@
     <sortCondition ref="G76:G137"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5264,7 +5366,7 @@
   <dimension ref="A2:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6199,7 +6301,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6550,8 +6652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A7:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6633,4 +6735,184 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" s="5" customFormat="1">
+      <c r="A2" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>